--- a/data/trans_bre/P29_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P29_R-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-22.62197256869021</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-18.74046927354232</v>
+        <v>-18.74046927354233</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.3173349030507512</v>
@@ -649,7 +649,7 @@
         <v>-0.3351046680446566</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.2785241375030912</v>
+        <v>-0.2785241375030914</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-27.05822599772228</v>
+        <v>-26.35909890952016</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-26.95394274851366</v>
+        <v>-27.7253498588814</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-30.0055818593136</v>
+        <v>-29.4864570731033</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-24.43413821559231</v>
+        <v>-25.01042987061194</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.422388624894689</v>
+        <v>-0.4119511304684809</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3849936879549019</v>
+        <v>-0.4017677129235231</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.4275892942503212</v>
+        <v>-0.4236293983883322</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.3522375192216234</v>
+        <v>-0.35185623949815</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-12.22414111524186</v>
+        <v>-12.09472184414718</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-11.98365812502459</v>
+        <v>-12.20610939839094</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-15.43400729826426</v>
+        <v>-15.45594915783636</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-13.16270165578768</v>
+        <v>-13.23355239943181</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.2052608847855873</v>
+        <v>-0.2047820050829897</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.1862232714037799</v>
+        <v>-0.1908628277604384</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>-0.24173589644759</v>
+        <v>-0.2411385936350501</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.2040230556360595</v>
+        <v>-0.202793154755849</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-11.94042457013671</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-7.256028773468969</v>
+        <v>-7.256028773468986</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.3198283529368851</v>
@@ -749,7 +749,7 @@
         <v>-0.1884538779682915</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.1273888606456932</v>
+        <v>-0.1273888606456935</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-26.5762542464644</v>
+        <v>-26.49331850338006</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-26.14952628279222</v>
+        <v>-26.54359686743445</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-19.38445406903103</v>
+        <v>-19.53678288777818</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-13.55758893264933</v>
+        <v>-13.51214584781541</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4169227971827005</v>
+        <v>-0.414220830975721</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4098666386746844</v>
+        <v>-0.4121888200585226</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2899337503425661</v>
+        <v>-0.2920140551440017</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2239832980417771</v>
+        <v>-0.223496337582103</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-11.98741719575095</v>
+        <v>-12.21392985923354</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-10.32825720205609</v>
+        <v>-11.43547593830339</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-4.657928815502714</v>
+        <v>-4.25157206238643</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-1.15507105987978</v>
+        <v>-1.140450494627927</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.2119189968318536</v>
+        <v>-0.2165793982838328</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.1863915134111863</v>
+        <v>-0.1889567693106227</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.07749852589029577</v>
+        <v>-0.07457252842470523</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.01939234590570365</v>
+        <v>-0.01872595695202571</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-29.96632540644961</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-21.03293521401036</v>
+        <v>-21.03293521401035</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.4105310035027673</v>
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-33.54344150288397</v>
+        <v>-33.6490767674324</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-38.11910127561016</v>
+        <v>-38.11895152084178</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-38.19425179548177</v>
+        <v>-38.06330591006833</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-28.82346397936142</v>
+        <v>-28.78031649669492</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.5196371266379078</v>
+        <v>-0.5305200300718953</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.6036099767708608</v>
+        <v>-0.6005551625392802</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.5811064676428305</v>
+        <v>-0.5771413982241144</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.4747935118589137</v>
+        <v>-0.4703495655595734</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-17.01716750546521</v>
+        <v>-16.07192773354181</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-24.72110917081669</v>
+        <v>-24.48258166313075</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-20.40091670694623</v>
+        <v>-21.2214314672548</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-13.62773152921812</v>
+        <v>-13.69397529046327</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.2784704986818997</v>
+        <v>-0.2666780139414906</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.4080461373424504</v>
+        <v>-0.4125634607101509</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>-0.3266498845346847</v>
+        <v>-0.3377276903529571</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.2427877195905154</v>
+        <v>-0.2413045016104493</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-31.39636085584157</v>
+        <v>-31.36399911400955</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-31.14845419979759</v>
+        <v>-31.285989888608</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-25.15780679347773</v>
+        <v>-25.75335886885949</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-24.20457736092838</v>
+        <v>-24.23769554577058</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5688246013909966</v>
+        <v>-0.5669807765428876</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5310236755058378</v>
+        <v>-0.5326355152189631</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4280505976759488</v>
+        <v>-0.4358465775875784</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4041283907647545</v>
+        <v>-0.4095395901344037</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-22.71267715229454</v>
+        <v>-22.31952333674839</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-22.56674701869586</v>
+        <v>-22.26781304555409</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-16.591947540728</v>
+        <v>-16.56511121550339</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-15.47607336168621</v>
+        <v>-15.3594215585674</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.4309365945262016</v>
+        <v>-0.4276098504599742</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.4057342906515938</v>
+        <v>-0.3982946945830546</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.2946621977575217</v>
+        <v>-0.2976041813823292</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.2806150058273038</v>
+        <v>-0.2843715853688926</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-43.10495407382382</v>
+        <v>-44.12157166970473</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-40.6883014277143</v>
+        <v>-40.13692717198704</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-30.00896418819873</v>
+        <v>-30.05198818425921</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-29.75157047955019</v>
+        <v>-29.6557872922279</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.6650197184446098</v>
+        <v>-0.6681047736541882</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.6469320614561817</v>
+        <v>-0.6459963992202707</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.5644606222211764</v>
+        <v>-0.5593104802825556</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.5277643555066427</v>
+        <v>-0.528404861487153</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-30.02718534139713</v>
+        <v>-30.58355121501285</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-29.56081317662317</v>
+        <v>-29.24079389084598</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-20.12005689389564</v>
+        <v>-19.71004191300267</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-19.33627794230675</v>
+        <v>-18.55912087139211</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.5253780175094015</v>
+        <v>-0.5305622560704577</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.5231678077292446</v>
+        <v>-0.5182359648912161</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.4150024762282144</v>
+        <v>-0.40632729128687</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.3934001158093658</v>
+        <v>-0.3878058100027776</v>
       </c>
     </row>
     <row r="19">
@@ -1149,7 +1149,7 @@
         <v>-0.5823087647742864</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.4411544466318668</v>
+        <v>-0.4411544466318669</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-35.60259627693437</v>
+        <v>-35.57105906450265</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-34.82234341261379</v>
+        <v>-35.13278465148563</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-39.18736018954749</v>
+        <v>-39.26595460171826</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-29.98022109752685</v>
+        <v>-29.37471805767678</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6857994631824835</v>
+        <v>-0.6840651771888497</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.6112636373423181</v>
+        <v>-0.6121987313676229</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.6361434874794621</v>
+        <v>-0.6463547441899818</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5702271914857145</v>
+        <v>-0.561395661960871</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-23.9132074369119</v>
+        <v>-23.47578565943952</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-21.86512169546167</v>
+        <v>-21.69157409183745</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>-26.22414815335624</v>
+        <v>-26.3990754893498</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>-8.36741275742385</v>
+        <v>-8.698383213440955</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.5594023255129384</v>
+        <v>-0.5554465457162</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.462651192782258</v>
+        <v>-0.4641822037530916</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.5138076860334208</v>
+        <v>-0.5150897410154796</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.2518643602656195</v>
+        <v>-0.2646878005332828</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>-26.55056218647771</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-22.08848685586158</v>
+        <v>-22.08848685586157</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.5381191653525398</v>
@@ -1249,7 +1249,7 @@
         <v>-0.4489114297276446</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.3862114422007593</v>
+        <v>-0.3862114422007591</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-32.91779511084329</v>
+        <v>-33.38894897779092</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-32.50358384591387</v>
+        <v>-32.43693593733046</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-28.69963970506618</v>
+        <v>-28.68476861227608</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-24.55738779297471</v>
+        <v>-24.25438739045414</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.5653690962825243</v>
+        <v>-0.5679001059169959</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.5340301524223983</v>
+        <v>-0.5334997562455357</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.4779016772785687</v>
+        <v>-0.4765317790188147</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.4176139053495521</v>
+        <v>-0.4149353287762353</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-28.35339849890122</v>
+        <v>-28.71607375739132</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-27.89074987130424</v>
+        <v>-27.69570963186095</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-24.31918498092101</v>
+        <v>-24.20437662926164</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-19.67258338560069</v>
+        <v>-19.65346760073452</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>-0.5051939784562379</v>
+        <v>-0.5075295973800426</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>-0.4758108374895553</v>
+        <v>-0.4718729650178227</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>-0.4171496538157404</v>
+        <v>-0.4187996827422562</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>-0.3530309190610679</v>
+        <v>-0.3528667321340969</v>
       </c>
     </row>
     <row r="25">
